--- a/tables_data.xlsx
+++ b/tables_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/Desktop/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E87EA4-A4DB-CA47-96A7-DD0824C094E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514AD2B9-82BF-C447-9EED-480254AEA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="26980" windowHeight="17980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>Col1</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>interior</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>anto</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -668,10 +677,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,6 +729,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
